--- a/medicine/Handicap/Clark_Middleton/Clark_Middleton.xlsx
+++ b/medicine/Handicap/Clark_Middleton/Clark_Middleton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clark Middleton, né le 13 avril 1957[1] à Bristol (Tennessee) et mort le 4 octobre 2020[2] à Los Angeles (Californie), est un acteur américain. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clark Middleton, né le 13 avril 1957 à Bristol (Tennessee) et mort le 4 octobre 2020 à Los Angeles (Californie), est un acteur américain. 
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clark Tinsley Middleton se distingue par son physique particulier, souffrant d'une arthrite chronique juvénile depuis ses 4 ans. Il se bat notamment pour le droit des patients et pour l'accès à des soins de santé abordables pour les personnes atteintes de maladies chroniques[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clark Tinsley Middleton se distingue par son physique particulier, souffrant d'une arthrite chronique juvénile depuis ses 4 ans. Il se bat notamment pour le droit des patients et pour l'accès à des soins de santé abordables pour les personnes atteintes de maladies chroniques. 
 Il est notamment connu grâce aux rôles d'Edward Markham dans Fringe et de Glen Carter dans Blacklist. 
-Le 4 octobre 2020, il meurt du virus du Nil occidental[2],[4],[5], la série Blacklist lui rend hommage dans la saison 8 épisode 6[6].
+Le 4 octobre 2020, il meurt du virus du Nil occidental la série Blacklist lui rend hommage dans la saison 8 épisode 6.
 </t>
         </is>
       </c>
@@ -546,7 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cinéma
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1990 : Bail Jumper de Christian Faber : Dickey
 1993 : The Contenders de Tobias Meinecke : John
 2000 : The Opponent d'Eugene Jarecki : Max Weller
@@ -567,11 +587,81 @@
 2013 : Aftermath de Thomas Farone : Clark
 2013 : Snowpiercer, le Transperceneige (설국열차) de Bong Joon-ho : le peintre
 2014 : Birdman d'Alejandro González Iñárritu : Sydney
-Courts-métrages
-2010 : The Story Beyond the Still, Chapter 4: Allison de Jeff Turick : le ramasseur d'épaves
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Clark_Middleton</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clark_Middleton</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Courts-métrages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2010 : The Story Beyond the Still, Chapter 4: Allison de Jeff Turick : le ramasseur d'épaves
 2012 : My Pain Is Worse Than Your Pain d'Adam Hall : Gary
-2017 : Wandering Bark de William Donovan : John Gershom Sr.
-Séries télévisées
+2017 : Wandering Bark de William Donovan : John Gershom Sr.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clark_Middleton</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clark_Middleton</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Séries télévisées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1997 - 2000 : New York, police judiciaire (saison 7, épisode 22 ; saison 8, épisode 2 ; saison 9, épisode 5 ; saison 10, épisode 10) : Ellis
 2005 - 2006 : Les Experts (saison 5, épisode 24 ; saison 7, épisode 9) : l'avocat / Freddie Sloan
 2005 : Jonny Zéro (saison 1, épisode 8) : Wally
